--- a/NEW HR/New folder/TORRES, ALVIN GLENN M..xlsx
+++ b/NEW HR/New folder/TORRES, ALVIN GLENN M..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2107686E-35F7-438E-8E6F-07B5E84A2B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FB00FD-B7B6-43E0-A5BE-60E927783043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -558,32 +558,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2557,7 +2557,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2954,10 +2954,10 @@
   </sheetPr>
   <dimension ref="A2:K76"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4788" topLeftCell="A5" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18:C20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="4788" topLeftCell="A21" activePane="bottomLeft"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2987,14 +2987,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3005,16 +3005,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="53">
         <v>44743</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3027,14 +3027,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3060,18 +3060,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3118,7 +3118,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>11.25</v>
+        <v>18.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3128,7 +3128,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>11.25</v>
+        <v>18.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13">
@@ -3315,8 +3315,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
-        <f>EDATE(A18,1)</f>
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="13">
@@ -3336,8 +3335,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
-        <f t="shared" ref="A20:A23" si="0">EDATE(A19,1)</f>
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="13">
@@ -3357,17 +3355,18 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
-        <f t="shared" si="0"/>
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B21" s="20"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D21" s="39"/>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G21" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="9"/>
@@ -3376,17 +3375,18 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
-        <f t="shared" si="0"/>
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B22" s="20"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D22" s="39"/>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G22" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
@@ -3395,17 +3395,18 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
-        <f t="shared" si="0"/>
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B23" s="20"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D23" s="39"/>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G23" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
@@ -3413,15 +3414,19 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
+      <c r="A24" s="40">
+        <v>45138</v>
+      </c>
       <c r="B24" s="20"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D24" s="39"/>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G24" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
@@ -3429,15 +3434,19 @@
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
+      <c r="A25" s="40">
+        <v>45169</v>
+      </c>
       <c r="B25" s="20"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
@@ -3445,15 +3454,19 @@
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
+      <c r="A26" s="40">
+        <v>45199</v>
+      </c>
       <c r="B26" s="20"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G26" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
@@ -3461,7 +3474,9 @@
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
+      <c r="A27" s="40">
+        <v>45230</v>
+      </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
@@ -3477,7 +3492,9 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
+      <c r="A28" s="40">
+        <v>45260</v>
+      </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
@@ -3493,7 +3510,9 @@
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
+      <c r="A29" s="40">
+        <v>45291</v>
+      </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
       <c r="D29" s="39"/>
@@ -4262,17 +4281,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -4305,7 +4324,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -4422,7 +4441,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>22.5</v>
+        <v>37.5</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
